--- a/CASUAL/LA CENRO/ATIENZA, VENUS.xlsx
+++ b/CASUAL/LA CENRO/ATIENZA, VENUS.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -712,14 +712,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -729,9 +732,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1305,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1715,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1780,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1823,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1898,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2084,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2150,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2274,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2330,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2405,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2448,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2514,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2570,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3048,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,14 +3078,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3096,14 +3096,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3116,16 +3116,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3151,18 +3151,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3209,7 +3209,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>42.179000000000002</v>
+        <v>43.429000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3219,7 +3219,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>71.75</v>
+        <v>72</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5131,13 +5131,15 @@
       <c r="B99" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39">
         <v>1</v>
@@ -5170,7 +5172,9 @@
       <c r="A101" s="40">
         <v>45292</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
@@ -5179,10 +5183,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>1</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49">
+        <v>45298</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
@@ -5914,17 +5922,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5992,14 +6000,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6010,14 +6018,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6030,16 +6038,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6065,18 +6073,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA CENRO/ATIENZA, VENUS.xlsx
+++ b/CASUAL/LA CENRO/ATIENZA, VENUS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B5EA3D-C3AD-4019-8258-69266EC15C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -333,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -712,17 +713,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,6 +730,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,7 +1263,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1306,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1370,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1430,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1496,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1559,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1657,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1716,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1781,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1824,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1899,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2085,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2151,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2209,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2275,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2331,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2406,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2449,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2515,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2571,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2650,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2666,25 +2667,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K143" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K143" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2696,25 +2697,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3021,7 +3022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3031,7 +3032,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3039,34 +3040,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3078,16 +3079,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3096,16 +3097,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3116,18 +3117,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3135,7 +3136,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3148,24 +3149,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3209,7 +3210,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>43.429000000000002</v>
+        <v>44.679000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3219,12 +3220,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>72</v>
+        <v>72.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3246,7 +3247,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3312,7 +3313,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3332,7 +3333,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3352,7 +3353,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3372,7 +3373,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3412,7 +3413,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3432,7 +3433,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3452,7 +3453,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3476,7 +3477,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3500,7 +3501,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3519,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3558,7 +3559,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3578,7 +3579,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3598,7 +3599,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3618,7 +3619,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3638,7 +3639,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3658,7 +3659,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3678,7 +3679,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3698,7 +3699,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -3746,7 +3747,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -3790,7 +3791,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>62</v>
       </c>
@@ -3808,7 +3809,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -3908,7 +3909,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -3928,7 +3929,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -3948,7 +3949,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3968,7 +3969,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4008,7 +4009,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4028,7 +4029,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4052,7 +4053,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>64</v>
       </c>
@@ -4070,7 +4071,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4090,7 +4091,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4110,7 +4111,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4130,7 +4131,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4150,7 +4151,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4170,7 +4171,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4190,7 +4191,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4210,7 +4211,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4230,7 +4231,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4250,7 +4251,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4270,7 +4271,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4314,7 +4315,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>65</v>
       </c>
@@ -4332,7 +4333,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4352,7 +4353,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4372,7 +4373,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>94</v>
@@ -4418,7 +4419,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44652</v>
       </c>
@@ -4438,7 +4439,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44682</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44713</v>
       </c>
@@ -4488,7 +4489,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
@@ -4512,7 +4513,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44774</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>44801</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>89</v>
@@ -4558,7 +4559,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>88</v>
@@ -4604,7 +4605,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>86</v>
@@ -4650,7 +4651,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44866</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>60</v>
@@ -4696,7 +4697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>69</v>
@@ -4718,7 +4719,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>83</v>
@@ -4738,7 +4739,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44896</v>
       </c>
@@ -4762,7 +4763,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>68</v>
       </c>
@@ -4780,7 +4781,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44927</v>
       </c>
@@ -4800,7 +4801,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44958</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -4848,7 +4849,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44986</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45017</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45047</v>
       </c>
@@ -4920,7 +4921,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45078</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>54</v>
@@ -4968,7 +4969,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45108</v>
       </c>
@@ -4988,7 +4989,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45139</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>50</v>
@@ -5036,7 +5037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45170</v>
       </c>
@@ -5056,7 +5057,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45200</v>
       </c>
@@ -5076,7 +5077,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45231</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>63</v>
@@ -5124,7 +5125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45261</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>95</v>
       </c>
@@ -5168,20 +5169,22 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45292</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39">
         <v>1</v>
@@ -5192,11 +5195,13 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45323</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -5205,12 +5210,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="49">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45352</v>
       </c>
@@ -5228,7 +5237,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45383</v>
       </c>
@@ -5246,7 +5255,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45413</v>
       </c>
@@ -5264,7 +5273,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45444</v>
       </c>
@@ -5282,7 +5291,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45474</v>
       </c>
@@ -5300,7 +5309,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45505</v>
       </c>
@@ -5318,7 +5327,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45536</v>
       </c>
@@ -5336,7 +5345,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45566</v>
       </c>
@@ -5354,7 +5363,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45597</v>
       </c>
@@ -5372,7 +5381,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45627</v>
       </c>
@@ -5390,7 +5399,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45658</v>
       </c>
@@ -5408,7 +5417,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45689</v>
       </c>
@@ -5426,7 +5435,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45717</v>
       </c>
@@ -5444,7 +5453,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45748</v>
       </c>
@@ -5462,7 +5471,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45778</v>
       </c>
@@ -5480,7 +5489,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45809</v>
       </c>
@@ -5498,7 +5507,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45839</v>
       </c>
@@ -5516,7 +5525,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45870</v>
       </c>
@@ -5534,7 +5543,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45901</v>
       </c>
@@ -5552,7 +5561,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45931</v>
       </c>
@@ -5570,7 +5579,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45962</v>
       </c>
@@ -5588,7 +5597,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45992</v>
       </c>
@@ -5606,7 +5615,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46023</v>
       </c>
@@ -5624,7 +5633,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46054</v>
       </c>
@@ -5642,7 +5651,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46082</v>
       </c>
@@ -5660,7 +5669,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46113</v>
       </c>
@@ -5678,7 +5687,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46143</v>
       </c>
@@ -5696,7 +5705,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5712,7 +5721,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5728,7 +5737,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5744,7 +5753,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5760,7 +5769,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5776,7 +5785,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5792,7 +5801,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5808,7 +5817,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5824,7 +5833,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5840,7 +5849,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5856,7 +5865,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5872,7 +5881,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5888,7 +5897,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5904,7 +5913,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="15"/>
       <c r="C143" s="42"/>
@@ -5922,23 +5931,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5961,34 +5970,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="E87" sqref="E87"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6000,16 +6009,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6018,16 +6027,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6038,18 +6047,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6057,7 +6066,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6070,24 +6079,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6146,7 +6155,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -6168,7 +6177,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6192,7 +6201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -6212,7 +6221,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6236,7 +6245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -6256,7 +6265,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6278,7 +6287,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6302,7 +6311,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -6324,7 +6333,7 @@
         <v>43309</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -6346,7 +6355,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43374</v>
       </c>
@@ -6370,7 +6379,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -6390,7 +6399,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -6432,7 +6441,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6450,7 +6459,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43647</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>65</v>
       </c>
@@ -6492,7 +6501,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44866</v>
       </c>
@@ -6514,7 +6523,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>68</v>
       </c>
@@ -6532,7 +6541,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>45017</v>
       </c>
@@ -6556,7 +6565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45047</v>
       </c>
@@ -6580,7 +6589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>75</v>
@@ -6600,7 +6609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>45106</v>
       </c>
@@ -6624,7 +6633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6640,7 +6649,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6656,7 +6665,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6672,7 +6681,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6688,7 +6697,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6704,7 +6713,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6720,7 +6729,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6736,7 +6745,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6752,7 +6761,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="15"/>
       <c r="C40" s="42"/>
@@ -6783,10 +6792,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6809,28 +6818,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6843,7 +6852,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6872,7 +6881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>85.507999999999996</v>
       </c>
@@ -6900,17 +6909,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6931,7 +6940,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6984,7 +6993,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7010,7 +7019,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7036,7 +7045,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7062,7 +7071,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7088,7 +7097,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7114,7 +7123,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7140,7 +7149,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7180,7 +7189,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7200,7 +7209,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7221,7 +7230,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7242,7 +7251,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7263,7 +7272,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7284,7 +7293,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7305,7 +7314,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7326,7 +7335,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7368,7 +7377,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7389,7 +7398,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7410,7 +7419,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7431,7 +7440,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7452,7 +7461,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7494,7 +7503,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7515,7 +7524,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7536,7 +7545,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7557,7 +7566,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7578,7 +7587,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7599,7 +7608,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7629,7 +7638,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7638,7 +7647,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7647,7 +7656,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7656,7 +7665,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7665,7 +7674,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7674,7 +7683,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7683,7 +7692,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7692,7 +7701,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7701,7 +7710,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7710,7 +7719,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7719,7 +7728,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7728,7 +7737,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7737,7 +7746,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7746,7 +7755,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7755,7 +7764,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7764,7 +7773,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7773,7 +7782,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7782,7 +7791,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7791,7 +7800,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7800,7 +7809,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7809,7 +7818,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7818,7 +7827,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7827,7 +7836,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7836,7 +7845,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7845,7 +7854,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7854,7 +7863,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7863,7 +7872,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7872,7 +7881,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7881,7 +7890,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
